--- a/biology/Zoologie/Choristoneura/Choristoneura.xlsx
+++ b/biology/Zoologie/Choristoneura/Choristoneura.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Choristoneura est un genre de lépidoptères (papillons) de la famille des Tortricidae, c'est-à-dire des « tordeuses ».
 </t>
@@ -511,9 +523,11 @@
           <t>Au Canada</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Au Canada, Choristoneura fumiferana (Clemens), désigne la tordeuse des bourgeons de l'épinette[1]. Très dévastatrice, on la retrouve dans toutes les provinces canadiennes.  La tordeuse des bourgeons de l'épinette a comme principaux hôtes l'épinette blanche, l'épinette rouge, l'épinette noire et le sapin baumier, qui est de loin son essence préférée. En période épidémique, on peut aussi la rencontrer sur d'autres essences résineuses.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Au Canada, Choristoneura fumiferana (Clemens), désigne la tordeuse des bourgeons de l'épinette. Très dévastatrice, on la retrouve dans toutes les provinces canadiennes.  La tordeuse des bourgeons de l'épinette a comme principaux hôtes l'épinette blanche, l'épinette rouge, l'épinette noire et le sapin baumier, qui est de loin son essence préférée. En période épidémique, on peut aussi la rencontrer sur d'autres essences résineuses.
 </t>
         </is>
       </c>
@@ -542,7 +556,9 @@
           <t>Espèces rencontrées en Europe</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Choristoneura albaniana (Walker 1863)
 Choristoneura bracatana (Rebel 1894)
